--- a/Document/Target 1 minggu Proyek 3 Kelompok B2.xlsx
+++ b/Document/Target 1 minggu Proyek 3 Kelompok B2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Proyek 3 Travelendar\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,9 +63,6 @@
     <t>September</t>
   </si>
   <si>
-    <t>MockUp HTML/CSS Home</t>
-  </si>
-  <si>
     <t>Muhammad Fizikri A dan Rizka Fajar Novia</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Fauzi Nur Noviansyah, Nurta Salam, Dhika Bagus D</t>
+  </si>
+  <si>
+    <t>MockUp HTML/CSS</t>
   </si>
 </sst>
 </file>
@@ -549,6 +549,54 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,54 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +947,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,27 +959,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="15">
         <v>13</v>
       </c>
@@ -1003,14 +1003,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="16"/>
@@ -1021,12 +1021,12 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="5"/>
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="3"/>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="3"/>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="3"/>
@@ -1107,14 +1107,14 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="3"/>
@@ -1125,12 +1125,12 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="8"/>
@@ -1141,42 +1141,42 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="37"/>
+      <c r="C11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="38"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>20</v>
+      <c r="C13" s="57" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="3"/>
@@ -1187,11 +1187,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="28"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1201,12 +1201,12 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="3"/>
@@ -1217,12 +1217,12 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="8"/>

--- a/Document/Target 1 minggu Proyek 3 Kelompok B2.xlsx
+++ b/Document/Target 1 minggu Proyek 3 Kelompok B2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Proyek 3 Travelendar\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,6 +63,9 @@
     <t>September</t>
   </si>
   <si>
+    <t>MockUp HTML/CSS Home</t>
+  </si>
+  <si>
     <t>Muhammad Fizikri A dan Rizka Fajar Novia</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>Fauzi Nur Noviansyah, Nurta Salam, Dhika Bagus D</t>
-  </si>
-  <si>
-    <t>MockUp HTML/CSS</t>
   </si>
 </sst>
 </file>
@@ -549,6 +549,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -596,39 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +947,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,27 +959,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="15">
         <v>13</v>
       </c>
@@ -1003,14 +1003,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="16"/>
@@ -1021,12 +1021,12 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="5"/>
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="3"/>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="3"/>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="3"/>
@@ -1107,14 +1107,14 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>16</v>
+      <c r="A9" s="48" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="3"/>
@@ -1125,12 +1125,12 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="8"/>
@@ -1141,42 +1141,42 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="53"/>
+      <c r="C11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="54"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>19</v>
+      <c r="C13" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="3"/>
@@ -1187,11 +1187,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="28"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1201,12 +1201,12 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="3"/>
@@ -1217,12 +1217,12 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="8"/>
